--- a/biology/Histoire de la zoologie et de la botanique/Louis_Fage/Louis_Fage.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Fage/Louis_Fage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Baptiste Louis Fage (1883 - 1964) est un biologiste marin, spéléologue et arachnologue français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Baptiste Louis Fage (1883 - 1964) est un biologiste marin, spéléologue et arachnologue français.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Fage est né le 30 septembre 1883 à Limoges (Haute-Vienne)[2],[3] dans une famille limousine qui comptait en elle des gens de robe ou de profession libérale[3]. Son père, René Fage[2],[3], bâtonnier du barreau de Limoges était également archéologue, membre correspondant de l'Académie des inscriptions et belles-lettres et ami d'Edmond Perrier, professeur au Muséum national d'histoire naturelle[3].
-Il étudie au collège Saint-Martial de Limoges puis poursuit, à partir de 1902, ses études supérieures à Paris avec ses frères Henri et André[3]. Par l'intermédiaire de son grand-père et de son père qui avaient fait leur droit à Paris, il fut mis en relation avec Edmond Perrier alors directeur du Muséum national d'histoire naturelle et c'est en regardant les vitrines de ce Musée que se développa sa curiosité pour le monde du vivant[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Fage est né le 30 septembre 1883 à Limoges (Haute-Vienne), dans une famille limousine qui comptait en elle des gens de robe ou de profession libérale. Son père, René Fage bâtonnier du barreau de Limoges était également archéologue, membre correspondant de l'Académie des inscriptions et belles-lettres et ami d'Edmond Perrier, professeur au Muséum national d'histoire naturelle.
+Il étudie au collège Saint-Martial de Limoges puis poursuit, à partir de 1902, ses études supérieures à Paris avec ses frères Henri et André. Par l'intermédiaire de son grand-père et de son père qui avaient fait leur droit à Paris, il fut mis en relation avec Edmond Perrier alors directeur du Muséum national d'histoire naturelle et c'est en regardant les vitrines de ce Musée que se développa sa curiosité pour le monde du vivant.
 Il commence à étudier la biologie à la Sorbonne et au laboratoire de Saint-Vaast-la-Hougue où il rencontre Rémy Perrier (1861 - 1936) et Gaston Bonnier (1851 - 1922).
-Après l’obtention de son doctorat en 1906 portant sur l'histologie des organes reproducteurs des Polychètes, il travaille au Laboratoire de biologie marine de Banyuls-sur-Mer sur l'étude des poissons méditerranéens[4]. A Banyuls, en 1909, Louis Fage et Emil Racoviță découvrent, dans les trottoirs d'algues calcaires, une petite araignée sous-marine, Desidiopsis racovitzai (Mizaga racovitzai (Fage, 1909)), apparentée aux grosses Desis des récifs tropicaux. La description de cette forme inattendue amena Louis Fage vers Eugène Simon, l'illustre arachnologue, dont il fut l'ami[2] et pour lequel il a toujours conservé un grand respect[4].
-En 1920, il rejoint le Muséum national d'histoire naturelle[4] et succède, en 1938, à Charles Joseph Gravier (1865 - 1937).
+Après l’obtention de son doctorat en 1906 portant sur l'histologie des organes reproducteurs des Polychètes, il travaille au Laboratoire de biologie marine de Banyuls-sur-Mer sur l'étude des poissons méditerranéens. A Banyuls, en 1909, Louis Fage et Emil Racoviță découvrent, dans les trottoirs d'algues calcaires, une petite araignée sous-marine, Desidiopsis racovitzai (Mizaga racovitzai (Fage, 1909)), apparentée aux grosses Desis des récifs tropicaux. La description de cette forme inattendue amena Louis Fage vers Eugène Simon, l'illustre arachnologue, dont il fut l'ami et pour lequel il a toujours conservé un grand respect.
+En 1920, il rejoint le Muséum national d'histoire naturelle et succède, en 1938, à Charles Joseph Gravier (1865 - 1937).
 Il est mort le 28 mai 1964 à Dijon.
 </t>
         </is>
@@ -547,10 +561,12 @@
           <t>Activités spéléologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le domaine souterrain, il était spécialiste des crustacés (amphipodes, décapodes) et des araignées[5].
-Il collabora très tôt aux travaux biospéologiques d'Emil Racoviţă et de René Jeannel[6] et participa à leurs explorations dans les Pyrénées et les Causses.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le domaine souterrain, il était spécialiste des crustacés (amphipodes, décapodes) et des araignées.
+Il collabora très tôt aux travaux biospéologiques d'Emil Racoviţă et de René Jeannel et participa à leurs explorations dans les Pyrénées et les Causses.
 Il fut à l'origine de la création par le CNRS du Laboratoire souterrain de Moulis en Ariège, dont il fut le premier président du Comité de direction. Il présida également la Commission de spéléologie du CNRS.
 </t>
         </is>
@@ -580,13 +596,15 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il publia une quarantaine de travaux d'ordre biospéologique, portant surtout sur les crustacés aquatiques et sur les araignées.
-Il est l'auteur de plus de 200 travaux portant sur les Annélides, les Péripates, les Pycnogonides, divers Arachnides, les Cumacés, les Amphipodes, les Euphausiacés, les Décapodes, les Clupéidés, les Gobiidés et autres Poissons[4].
-Il est l'auteur d'une famille d'araignées aranéomorphes à six yeux, les Ochyroceratidae Fage, 1912[7].
-Au cours de ses travaux sur les araignées, il a décrit plusieurs dizaines d'espèces, toujours valides, dont certaines en collaboration avec Eugène Simon[8].
-Liste des espèces d'araignées décrites par Louis Fage[8]
+Il est l'auteur de plus de 200 travaux portant sur les Annélides, les Péripates, les Pycnogonides, divers Arachnides, les Cumacés, les Amphipodes, les Euphausiacés, les Décapodes, les Clupéidés, les Gobiidés et autres Poissons.
+Il est l'auteur d'une famille d'araignées aranéomorphes à six yeux, les Ochyroceratidae Fage, 1912.
+Au cours de ses travaux sur les araignées, il a décrit plusieurs dizaines d'espèces, toujours valides, dont certaines en collaboration avec Eugène Simon.
+Liste des espèces d'araignées décrites par Louis Fage
 Agelena atlantea Fage, 1938 - famille Agelenidae
 Amaurobius cerberus Fage, 1931 - famille Amaurobiidae
 Ancylotrypa fasciata Fage, 1936 - famille Cyrtaucheniidae
@@ -686,33 +704,33 @@
 Zelotes tarsalis Fage, 1929 - famille Gnaphosidae
 Rendant hommage à son travail arachnologique, certains auteurs ont nommé un genre, Fageia, et plusieurs espèces d'araignées en son honneur.
 Liste des espèces d'araignées nommées en l'honneur de Louis Fage :
-Fageia Mello-Leitão, 1929 [9] - famille Philodromidae
-Cambalida fagei (Caporiacco, 1939)[10] - famille Corinnidae
-Chira fagei Caporiacco, 1947[11] - famille Salticidae
-Dundocera fagei Machado, 1951[12] - famille Ochyroceratidae
-Gnaphosa fagei Schenkel, 1963[13] - famille Gnaphosidae
-Kryptonesticus fagei (Kratochvíl, 1933)[14] - famille Nesticidae
-Lepthyphantes fagei Machado, 1939[15] - famille Linyphiidae
-Leptoneta fagei Simon, 1914[16] - famille Leptonetidae
-Menemerus fagei Berland &amp; Millot, 1941[17] - famille Salticidae
-Minotauria fagei (Kratochvíl, 1970)[18] - famille Dysderidae
-Mistaria fagei (Caporiacco, 1949)[19] - famille Agelenidae
-Miturga fagei Kolosváry, 1934[20] - famille Miturgidae
-Nemesia fagei Frade &amp; Bacelar, 1931[21] - famille Nemesiidae
-Ochyrocera fagei Brignoli, 1974[22] - famille Ochyroceratidae
-Panamomops fagei Miller &amp; Kratochvíl, 1939[23] - famille Linyphiidae
-Pharacocerus fagei Berland &amp; Millot, 1941[17] - famille Salticidae
-Pholcus fagei Kratochvíl, 1940[24] - famille Pholcidae
-Speocera fagei (Berland, 1914)[25] - famille Ochyroceratidae
-Steatoda fagei (Lawrence, 1964)[26] - famille Theridiidae
-Talanites fagei Spassky, 1938[27] - famille Gnaphosidae
-Trogloctenus fagei (Lessert, 1935)[28] - famille Ctenidae
-Troglohyphantes fagei Roewer, 1931[29] - famille Linyphiidae
-Zatavua fagei (Millot, 1946)[30] - famille Pholcidae
-Zelotes fagei Denis, 1955[31] - famille Gnaphosidae
+Fageia Mello-Leitão, 1929  - famille Philodromidae
+Cambalida fagei (Caporiacco, 1939) - famille Corinnidae
+Chira fagei Caporiacco, 1947 - famille Salticidae
+Dundocera fagei Machado, 1951 - famille Ochyroceratidae
+Gnaphosa fagei Schenkel, 1963 - famille Gnaphosidae
+Kryptonesticus fagei (Kratochvíl, 1933) - famille Nesticidae
+Lepthyphantes fagei Machado, 1939 - famille Linyphiidae
+Leptoneta fagei Simon, 1914 - famille Leptonetidae
+Menemerus fagei Berland &amp; Millot, 1941 - famille Salticidae
+Minotauria fagei (Kratochvíl, 1970) - famille Dysderidae
+Mistaria fagei (Caporiacco, 1949) - famille Agelenidae
+Miturga fagei Kolosváry, 1934 - famille Miturgidae
+Nemesia fagei Frade &amp; Bacelar, 1931 - famille Nemesiidae
+Ochyrocera fagei Brignoli, 1974 - famille Ochyroceratidae
+Panamomops fagei Miller &amp; Kratochvíl, 1939 - famille Linyphiidae
+Pharacocerus fagei Berland &amp; Millot, 1941 - famille Salticidae
+Pholcus fagei Kratochvíl, 1940 - famille Pholcidae
+Speocera fagei (Berland, 1914) - famille Ochyroceratidae
+Steatoda fagei (Lawrence, 1964) - famille Theridiidae
+Talanites fagei Spassky, 1938 - famille Gnaphosidae
+Trogloctenus fagei (Lessert, 1935) - famille Ctenidae
+Troglohyphantes fagei Roewer, 1931 - famille Linyphiidae
+Zatavua fagei (Millot, 1946) - famille Pholcidae
+Zelotes fagei Denis, 1955 - famille Gnaphosidae
 D'autres espèces d'invertébrés cavernicoles ont également été nommées en son honneur.
-Galliocookia fagei Ribaut, 1955[32] - famille Trichopolydesmidae
-Diaprysius fagei Jeannel, 1914[33] - famille Leiodidae (découvert en janvier 1914 dans la grotte de la Coquelière (Saint-André-de-Cruzières &amp; Courry) par Charles Fagniez, René Jeannel, Emil Racovitza et Louis Fage)[34]</t>
+Galliocookia fagei Ribaut, 1955 - famille Trichopolydesmidae
+Diaprysius fagei Jeannel, 1914 - famille Leiodidae (découvert en janvier 1914 dans la grotte de la Coquelière (Saint-André-de-Cruzières &amp; Courry) par Charles Fagniez, René Jeannel, Emil Racovitza et Louis Fage)</t>
         </is>
       </c>
     </row>
@@ -740,11 +758,13 @@
           <t>Hommages et Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il reçoit en 1947 la médaille d'or de l'association Johannes Schmidt pour l'exploration de la mer[4].
-Il dirigea les revues scientifiques Annales de l'Institut Océanographique et Archives de Zoologie expérimentale et générale[4].
-Il fut président des commissions du Bathyscaphe et de la Calypso au Centre National de la Recherche Scientifique[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il reçoit en 1947 la médaille d'or de l'association Johannes Schmidt pour l'exploration de la mer.
+Il dirigea les revues scientifiques Annales de l'Institut Océanographique et Archives de Zoologie expérimentale et générale.
+Il fut président des commissions du Bathyscaphe et de la Calypso au Centre National de la Recherche Scientifique.
 Un médaillon à l'effigie de Louis Fage réalisé en plâtre en 1953 par Robert Cochet et intitulé Professeur Louis Fage, membre de l'Institut est conservé au Musée Carnavalet à Paris (Numéro d’inventaire: S3659).
 Le Louis Fage est un bateau de prélèvement (SM 735565) de la station de biologie marine de Dinard (CRESCO).
  Commandeur de la Légion d'honneur
